--- a/tbl打包工具/excel/itemConfig.xlsx
+++ b/tbl打包工具/excel/itemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品类型，1金币，2粮草，3技能丹，4装备，…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +180,10 @@
   </si>
   <si>
     <t>铜钱是游戏的最小货币单位，1金锭=1000贯铜钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型，1金币|2粮草|3护甲|4武器|5马匹|6道具|7令牌|...物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,31 +558,31 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -590,7 +590,7 @@
         <v>6001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -628,7 +628,7 @@
         <v>6002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -666,7 +666,7 @@
         <v>6003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -704,7 +704,7 @@
         <v>6004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -760,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -771,15 +771,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -787,63 +787,63 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/itemConfig.xlsx
+++ b/tbl打包工具/excel/itemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,40 @@
   </si>
   <si>
     <t>物品类型，1金币|2粮草|3护甲|4武器|5马匹|6道具|7令牌|...物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>troops</t>
+  </si>
+  <si>
+    <t>附加兵力数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm_type</t>
+  </si>
+  <si>
+    <t>开启兵种属性（刀枪弓骑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用字段，用于使用某物品开启某种特性（如官职，技能，兵种等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>troops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,21 +567,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="51" style="1" customWidth="1"/>
+    <col min="9" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="51" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,10 +616,19 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>6001</v>
       </c>
@@ -619,11 +662,20 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>6002</v>
       </c>
@@ -657,11 +709,20 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>6003</v>
       </c>
@@ -695,11 +756,20 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>6004</v>
       </c>
@@ -733,7 +803,16 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -746,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -852,6 +931,30 @@
       </c>
       <c r="B12" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/itemConfig.xlsx
+++ b/tbl打包工具/excel/itemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,33 +32,10 @@
     <t>desc</t>
   </si>
   <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品增加的金币数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品增加的粮草数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,34 +80,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金锭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粮草(石）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能或装备等物品的等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮草是游戏中的一种消耗资源，1石粮草=1000斤粮食或草料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,26 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铜钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮草(斤)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锭是游戏的货币单位，1金锭=1000贯铜钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜钱是游戏的最小货币单位，1金锭=1000贯铜钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品类型，1金币|2粮草|3护甲|4武器|5马匹|6道具|7令牌|...物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>troops</t>
   </si>
   <si>
@@ -218,6 +151,209 @@
   </si>
   <si>
     <t>arm_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型，1金币|2粮草|3药材|头盔|护甲|武器|马匹|道具|令牌|...物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币(锭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮草（石）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材（副）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵（千人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀兵（千人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵（千人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵（千人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能或装备等物品的品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵资源</t>
+  </si>
+  <si>
+    <t>士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪戟（千件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀剑（千件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弩（千件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马匹（千匹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵甲（千件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=轻装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=重装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=精锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4=羽林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=皮质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=铜质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=铁质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4=钢制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币(锭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材(副)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锭是游戏的货币单位，1金锭=100贯铜钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮草是游戏中的一种消耗资源，1石粮草=100斤粮食或草料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材是游戏中的一种消耗资源，1副药材=100份药材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵(千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀兵(千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵(千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵(千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪戟兵一千名，品质有轻装、重装、精锐、羽林之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀剑兵一千名，品质有轻装、重装、精锐、羽林之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弩兵一千名，品质有轻装、重装、精锐、羽林之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵兵一千名，品质有轻装、重装、精锐、羽林之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪戟(千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀剑(千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弩(千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵甲(千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马匹(千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪戟（士兵资源）一千件，品质有皮质、铜质、铁质、钢质之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀剑（士兵资源）一千件，品质有皮质、铜质、铁质、钢质之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弩（士兵资源）一千件，品质有皮质、铜质、铁质、钢质之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马匹（士兵资源）一千件，品质有皮质、铜质、铁质、钢质之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵甲（士兵资源）一千件，品质有皮质、铜质、铁质、钢质之分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,21 +703,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="51" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="7" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="59.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,57 +725,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>6001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -665,22 +795,16 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>6002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -689,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -712,28 +836,22 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>6003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -759,31 +877,25 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>6004</v>
+        <v>401</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -806,14 +918,336 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>25</v>
+      <c r="M5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>402</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>403</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>404</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>501</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>502</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>503</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>504</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>505</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -825,136 +1259,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="72.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/itemConfig.xlsx
+++ b/tbl打包工具/excel/itemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/tbl打包工具/excel/itemConfig.xlsx
+++ b/tbl打包工具/excel/itemConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
   <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,170 @@
   </si>
   <si>
     <t>兵甲（士兵资源）一千件，品质有皮质、铜质、铁质、钢质之分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵装备5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备士兵4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件（道具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将装备8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西亚马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河西马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲弓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,6 +1414,1236 @@
         <v>85</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>8101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>8102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>8103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>8104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>8105</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>8106</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>8201</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>8202</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>8203</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>8204</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>8205</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>8206</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>8207</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>8208</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>8209</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>8210</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>8211</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>8212</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>8301</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>8302</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>8303</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>8304</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>8305</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>8306</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>8307</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>8401</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>8402</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>8403</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>8404</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>8501</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1259,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1310,7 +2704,7 @@
         <v>43</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>6001</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -1324,7 +2718,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>6002</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
@@ -1338,7 +2732,7 @@
         <v>25</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6003</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
@@ -1351,8 +2745,8 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>4</v>
+      <c r="F7" t="s">
+        <v>87</v>
       </c>
       <c r="G7" t="s">
         <v>39</v>
@@ -1413,8 +2807,8 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="F11">
-        <v>5</v>
+      <c r="F11" t="s">
+        <v>86</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
@@ -1465,6 +2859,34 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G15" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/itemConfig.xlsx
+++ b/tbl打包工具/excel/itemConfig.xlsx
@@ -365,26 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件（道具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武将装备8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,6 +498,26 @@
   </si>
   <si>
     <t>劲弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔81XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器82XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲83XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑84XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具85XX86XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,10 +1419,10 @@
         <v>8101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -1460,10 +1460,10 @@
         <v>8102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1501,10 +1501,10 @@
         <v>8103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -1542,10 +1542,10 @@
         <v>8104</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -1583,10 +1583,10 @@
         <v>8105</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -1624,10 +1624,10 @@
         <v>8106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -1665,10 +1665,10 @@
         <v>8201</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -1706,10 +1706,10 @@
         <v>8202</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -1747,10 +1747,10 @@
         <v>8203</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -1788,10 +1788,10 @@
         <v>8204</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -1829,10 +1829,10 @@
         <v>8205</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -1870,10 +1870,10 @@
         <v>8206</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -1911,10 +1911,10 @@
         <v>8207</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -1952,10 +1952,10 @@
         <v>8208</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
@@ -1993,10 +1993,10 @@
         <v>8209</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
@@ -2034,10 +2034,10 @@
         <v>8210</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -2075,10 +2075,10 @@
         <v>8211</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
@@ -2116,10 +2116,10 @@
         <v>8212</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -2157,10 +2157,10 @@
         <v>8301</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
@@ -2198,10 +2198,10 @@
         <v>8302</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
@@ -2239,10 +2239,10 @@
         <v>8303</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -2280,10 +2280,10 @@
         <v>8304</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C35" s="1">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
@@ -2321,10 +2321,10 @@
         <v>8305</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
@@ -2362,10 +2362,10 @@
         <v>8306</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
@@ -2403,10 +2403,10 @@
         <v>8307</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -2444,10 +2444,10 @@
         <v>8401</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -2485,10 +2485,10 @@
         <v>8402</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -2526,10 +2526,10 @@
         <v>8403</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -2567,10 +2567,10 @@
         <v>8404</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -2608,10 +2608,10 @@
         <v>8501</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2656,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2863,30 +2863,30 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G18" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G20" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/itemConfig.xlsx
+++ b/tbl打包工具/excel/itemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
   <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +518,18 @@
   </si>
   <si>
     <t>道具85XX86XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将经验是武将升级的一种计量值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1047,13 +1059,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>401</v>
+        <v>6101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1083,15 +1095,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -1124,15 +1136,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -1165,15 +1177,15 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1206,18 +1218,18 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>501</v>
+        <v>404</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1247,15 +1259,15 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1288,15 +1300,15 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -1329,15 +1341,15 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1370,15 +1382,15 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
@@ -1411,18 +1423,18 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>8101</v>
+        <v>505</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1452,15 +1464,15 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>8102</v>
+        <v>8101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1">
         <v>81</v>
@@ -1493,15 +1505,15 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>8103</v>
+        <v>8102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>81</v>
@@ -1534,15 +1546,15 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>8104</v>
+        <v>8103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1">
         <v>81</v>
@@ -1575,15 +1587,15 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>8105</v>
+        <v>8104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1">
         <v>81</v>
@@ -1616,15 +1628,15 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>8106</v>
+        <v>8105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1">
         <v>81</v>
@@ -1657,18 +1669,18 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>8201</v>
+        <v>8106</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1698,15 +1710,15 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>8202</v>
+        <v>8201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1">
         <v>82</v>
@@ -1739,15 +1751,15 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>8203</v>
+        <v>8202</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1">
         <v>82</v>
@@ -1780,15 +1792,15 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>8204</v>
+        <v>8203</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1">
         <v>82</v>
@@ -1821,15 +1833,15 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>8205</v>
+        <v>8204</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1">
         <v>82</v>
@@ -1862,15 +1874,15 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>8206</v>
+        <v>8205</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1">
         <v>82</v>
@@ -1903,15 +1915,15 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>8207</v>
+        <v>8206</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1">
         <v>82</v>
@@ -1944,15 +1956,15 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>8208</v>
+        <v>8207</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" s="1">
         <v>82</v>
@@ -1985,15 +1997,15 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>8209</v>
+        <v>8208</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1">
         <v>82</v>
@@ -2026,15 +2038,15 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>8210</v>
+        <v>8209</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1">
         <v>82</v>
@@ -2067,15 +2079,15 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>8211</v>
+        <v>8210</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1">
         <v>82</v>
@@ -2108,15 +2120,15 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>8212</v>
+        <v>8211</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1">
         <v>82</v>
@@ -2149,18 +2161,18 @@
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>8301</v>
+        <v>8212</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C32" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -2190,15 +2202,15 @@
         <v>0</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>8302</v>
+        <v>8301</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="1">
         <v>83</v>
@@ -2231,15 +2243,15 @@
         <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>8303</v>
+        <v>8302</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1">
         <v>83</v>
@@ -2272,15 +2284,15 @@
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>8304</v>
+        <v>8303</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1">
         <v>83</v>
@@ -2313,15 +2325,15 @@
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>8305</v>
+        <v>8304</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1">
         <v>83</v>
@@ -2354,15 +2366,15 @@
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>8306</v>
+        <v>8305</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1">
         <v>83</v>
@@ -2395,15 +2407,15 @@
         <v>0</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>8307</v>
+        <v>8306</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1">
         <v>83</v>
@@ -2436,18 +2448,18 @@
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>8401</v>
+        <v>8307</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -2477,15 +2489,15 @@
         <v>0</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>8402</v>
+        <v>8401</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1">
         <v>84</v>
@@ -2518,15 +2530,15 @@
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>8403</v>
+        <v>8402</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1">
         <v>84</v>
@@ -2559,15 +2571,15 @@
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>8404</v>
+        <v>8403</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1">
         <v>84</v>
@@ -2600,47 +2612,88 @@
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
+        <v>8404</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="1">
+        <v>84</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
         <v>8501</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>85</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2656,7 +2709,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B29" activeCellId="1" sqref="I27 B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2681,6 +2734,9 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2689,8 +2745,11 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>53</v>
+      <c r="F3">
+        <v>6001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>52</v>
@@ -2704,10 +2763,10 @@
         <v>43</v>
       </c>
       <c r="F4">
-        <v>6001</v>
+        <v>6002</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -2718,10 +2777,10 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>6002</v>
+        <v>6003</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -2732,10 +2791,10 @@
         <v>25</v>
       </c>
       <c r="F6">
-        <v>6003</v>
+        <v>6101</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/itemConfig.xlsx
+++ b/tbl打包工具/excel/itemConfig.xlsx
@@ -265,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>药材(副)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金锭是游戏的货币单位，1金锭=100贯铜钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>药材是游戏中的一种消耗资源，1副药材=100份药材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>枪兵(千)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +522,14 @@
   </si>
   <si>
     <t>武将经验是武将升级的一种计量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材是游戏中的一种消耗资源，1付药材=100份药材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材(付)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -1021,7 +1021,7 @@
         <v>6003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -1062,7 +1062,7 @@
         <v>6101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -1103,7 +1103,7 @@
         <v>401</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -1144,7 +1144,7 @@
         <v>402</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -1185,7 +1185,7 @@
         <v>403</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1226,7 +1226,7 @@
         <v>404</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -1267,7 +1267,7 @@
         <v>501</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -1308,7 +1308,7 @@
         <v>502</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1349,7 +1349,7 @@
         <v>503</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -1390,7 +1390,7 @@
         <v>504</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -1431,7 +1431,7 @@
         <v>505</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -1472,7 +1472,7 @@
         <v>8101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1">
         <v>81</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1513,7 +1513,7 @@
         <v>8102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1">
         <v>81</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -1554,7 +1554,7 @@
         <v>8103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>81</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -1595,7 +1595,7 @@
         <v>8104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1">
         <v>81</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -1636,7 +1636,7 @@
         <v>8105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1">
         <v>81</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -1677,7 +1677,7 @@
         <v>8106</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1">
         <v>81</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -1718,7 +1718,7 @@
         <v>8201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1">
         <v>82</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -1759,7 +1759,7 @@
         <v>8202</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1">
         <v>82</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -1800,7 +1800,7 @@
         <v>8203</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1">
         <v>82</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -1841,7 +1841,7 @@
         <v>8204</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1">
         <v>82</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -1882,7 +1882,7 @@
         <v>8205</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1">
         <v>82</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -1923,7 +1923,7 @@
         <v>8206</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1">
         <v>82</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -1964,7 +1964,7 @@
         <v>8207</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1">
         <v>82</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
@@ -2005,7 +2005,7 @@
         <v>8208</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1">
         <v>82</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
@@ -2046,7 +2046,7 @@
         <v>8209</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1">
         <v>82</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -2087,7 +2087,7 @@
         <v>8210</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1">
         <v>82</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
@@ -2128,7 +2128,7 @@
         <v>8211</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C31" s="1">
         <v>82</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -2169,7 +2169,7 @@
         <v>8212</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1">
         <v>82</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
@@ -2210,7 +2210,7 @@
         <v>8301</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1">
         <v>83</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
@@ -2251,7 +2251,7 @@
         <v>8302</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1">
         <v>83</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -2292,7 +2292,7 @@
         <v>8303</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1">
         <v>83</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
@@ -2333,7 +2333,7 @@
         <v>8304</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1">
         <v>83</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
@@ -2374,7 +2374,7 @@
         <v>8305</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1">
         <v>83</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
@@ -2415,7 +2415,7 @@
         <v>8306</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1">
         <v>83</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -2456,7 +2456,7 @@
         <v>8307</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1">
         <v>83</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -2497,7 +2497,7 @@
         <v>8401</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1">
         <v>84</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -2538,7 +2538,7 @@
         <v>8402</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1">
         <v>84</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -2579,7 +2579,7 @@
         <v>8403</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1">
         <v>84</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -2620,7 +2620,7 @@
         <v>8404</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1">
         <v>84</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -2661,7 +2661,7 @@
         <v>8501</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1">
         <v>85</v>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2794,7 @@
         <v>6101</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -2805,7 +2805,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>39</v>
@@ -2867,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
@@ -2922,30 +2922,30 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/itemConfig.xlsx
+++ b/tbl打包工具/excel/itemConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
   <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备增加的血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +518,18 @@
   </si>
   <si>
     <t>药材(付)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买花费金币值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,21 +879,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="59.375" style="1" customWidth="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="59.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,48 +904,51 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>6001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -971,11 +974,14 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>6002</v>
       </c>
@@ -986,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1012,22 +1018,25 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>6003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1053,22 +1062,25 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>6101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1094,22 +1106,25 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>401</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1135,22 +1150,25 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>402</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1176,22 +1194,25 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>403</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1217,22 +1238,25 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>404</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1258,22 +1282,25 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>501</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1299,22 +1326,25 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>502</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1340,22 +1370,25 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>503</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1381,22 +1414,25 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>504</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1422,22 +1458,25 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>505</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1463,22 +1502,25 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>8101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1">
         <v>81</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1504,22 +1546,25 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>8102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1">
         <v>81</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1545,22 +1590,25 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>8103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1">
         <v>81</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1586,22 +1634,25 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>8104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1">
         <v>81</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1627,22 +1678,25 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>8105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1">
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1668,22 +1722,25 @@
       <c r="L19" s="1">
         <v>0</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>8106</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1">
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1709,22 +1766,25 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>8201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1">
         <v>82</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1750,22 +1810,25 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>8202</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1">
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1791,22 +1854,25 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>8203</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1">
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1832,22 +1898,25 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>8204</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1">
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1873,22 +1942,25 @@
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>8205</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1">
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1914,22 +1986,25 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>8206</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1">
         <v>82</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1955,22 +2030,25 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>8207</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1">
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1996,22 +2074,25 @@
       <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>8208</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1">
         <v>82</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2037,22 +2118,25 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>8209</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1">
         <v>82</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2078,22 +2162,25 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>8210</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1">
         <v>82</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2119,22 +2206,25 @@
       <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>8211</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1">
         <v>82</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2160,22 +2250,25 @@
       <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>8212</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1">
         <v>82</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2201,22 +2294,25 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>8301</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1">
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2242,22 +2338,25 @@
       <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>8302</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1">
         <v>83</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2283,22 +2382,25 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>8303</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1">
         <v>83</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -2324,22 +2426,25 @@
       <c r="L35" s="1">
         <v>0</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>8304</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1">
         <v>83</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2365,22 +2470,25 @@
       <c r="L36" s="1">
         <v>0</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>8305</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1">
         <v>83</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2406,22 +2514,25 @@
       <c r="L37" s="1">
         <v>0</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>8306</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1">
         <v>83</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2447,22 +2558,25 @@
       <c r="L38" s="1">
         <v>0</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>8307</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1">
         <v>83</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2488,22 +2602,25 @@
       <c r="L39" s="1">
         <v>0</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>8401</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1">
         <v>84</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2529,22 +2646,25 @@
       <c r="L40" s="1">
         <v>0</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>8402</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1">
         <v>84</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2570,22 +2690,25 @@
       <c r="L41" s="1">
         <v>0</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>8403</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C42" s="1">
         <v>84</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2611,22 +2734,25 @@
       <c r="L42" s="1">
         <v>0</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>8404</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1">
         <v>84</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -2652,22 +2778,25 @@
       <c r="L43" s="1">
         <v>0</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>8501</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1">
         <v>85</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2693,8 +2822,11 @@
       <c r="L44" s="1">
         <v>0</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>87</v>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2841,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" activeCellId="1" sqref="I27 B29"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2721,10 +2853,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2732,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2743,209 +2875,215 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>6001</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F4">
         <v>6002</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>6003</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>6101</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
         <v>54</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
         <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
